--- a/FichTec2.xlsx
+++ b/FichTec2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54C711-586A-4893-B49E-50394250B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87D388-E34C-43E7-8469-EF764C463C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Protein content</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>0.0%</t>
+  </si>
+  <si>
+    <t>11.038</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -646,7 +649,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -709,8 +712,8 @@
       <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="9">
-        <v>11038</v>
+      <c r="G2" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>38</v>

--- a/FichTec2.xlsx
+++ b/FichTec2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87D388-E34C-43E7-8469-EF764C463C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10329642-65A2-4140-8F7C-C8BE15DA321A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Protein content</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>0.0%</t>
-  </si>
-  <si>
-    <t>11.038</t>
   </si>
 </sst>
 </file>
@@ -649,7 +646,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -712,8 +709,8 @@
       <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>49</v>
+      <c r="G2" s="9">
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>38</v>

--- a/FichTec2.xlsx
+++ b/FichTec2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10329642-65A2-4140-8F7C-C8BE15DA321A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B407BFEB-7581-48B0-9781-E9E99BAE4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Protein content</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>0.0%</t>
+  </si>
+  <si>
+    <t>Aceite de Canola</t>
+  </si>
+  <si>
+    <t>Aceite</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,6 +315,18 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F327A73A-5982-48E2-8B94-FF618D626A41}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -935,6 +953,41 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>884</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FichTec2.xlsx
+++ b/FichTec2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B407BFEB-7581-48B0-9781-E9E99BAE4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EAB47-6153-4A31-9FC5-B5F3628F62ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Protein content</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Aceite</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
 </sst>
 </file>
@@ -325,8 +328,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +667,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -963,8 +966,8 @@
       <c r="C9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
+      <c r="D9" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E9" s="13">
         <v>884</v>
@@ -975,13 +978,13 @@
       <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>0</v>
       </c>
       <c r="K9" s="13">

--- a/FichTec2.xlsx
+++ b/FichTec2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EAB47-6153-4A31-9FC5-B5F3628F62ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CCC2F6-57DA-4CC3-B21E-C1FF3D5332BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Protein content</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Aceite</t>
-  </si>
-  <si>
-    <t>100.0%</t>
   </si>
 </sst>
 </file>
@@ -289,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -329,7 +326,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +663,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -956,7 +952,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -966,8 +962,8 @@
       <c r="C9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>51</v>
+      <c r="D9" s="8">
+        <v>1</v>
       </c>
       <c r="E9" s="13">
         <v>884</v>
